--- a/Assets/ConfigExcel/cs_UIPanel.xlsx
+++ b/Assets/ConfigExcel/cs_UIPanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GameCreate\CardsRogueLike\Assets\ConfigExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VampireSurvivalLike\VampireSurvivalLike\Assets\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E59E6-EBB9-4777-BDA6-838771D5B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6040F5-35E1-4045-8214-E4098D3704FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="41100" windowHeight="14295" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@uiPanel" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,14 +145,6 @@
   </si>
   <si>
     <t>MainMenuPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_BattleTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,26 +552,26 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="68.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -590,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -612,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -623,21 +615,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -656,11 +640,11 @@
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +660,10 @@
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ConfigExcel/cs_UIPanel.xlsx
+++ b/Assets/ConfigExcel/cs_UIPanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VampireSurvivalLike\VampireSurvivalLike\Assets\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6040F5-35E1-4045-8214-E4098D3704FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319039F-A7A4-4AC7-B7BA-6AF03F4BFEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="41100" windowHeight="14295" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27060" yWindow="3735" windowWidth="21600" windowHeight="11385" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@uiPanel" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>MainMenuPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattlePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleLvUpPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_BattleLvUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleLvUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,9 +246,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -549,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,13 +639,26 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
